--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Rarres2-Ccrl2.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Rarres2-Ccrl2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>Ccrl2</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>M1</t>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>18.2134698544512</v>
+        <v>0.2527133333333333</v>
       </c>
       <c r="H2">
-        <v>18.2134698544512</v>
+        <v>0.75814</v>
       </c>
       <c r="I2">
-        <v>0.8733159122702197</v>
+        <v>0.01168865099424763</v>
       </c>
       <c r="J2">
-        <v>0.8733159122702197</v>
+        <v>0.01168865099424763</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.9337418214083</v>
+        <v>4.098286333333333</v>
       </c>
       <c r="N2">
-        <v>3.9337418214083</v>
+        <v>12.294859</v>
       </c>
       <c r="O2">
-        <v>0.05651018376729135</v>
+        <v>0.05728357954885573</v>
       </c>
       <c r="P2">
-        <v>0.05651018376729135</v>
+        <v>0.05728357954885573</v>
       </c>
       <c r="Q2">
-        <v>71.64708807941403</v>
+        <v>1.035691600251111</v>
       </c>
       <c r="R2">
-        <v>71.64708807941403</v>
+        <v>9.32122440226</v>
       </c>
       <c r="S2">
-        <v>0.0493512426892898</v>
+        <v>0.0006695677690477954</v>
       </c>
       <c r="T2">
-        <v>0.0493512426892898</v>
+        <v>0.0006695677690477954</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>18.2134698544512</v>
+        <v>0.2527133333333333</v>
       </c>
       <c r="H3">
-        <v>18.2134698544512</v>
+        <v>0.75814</v>
       </c>
       <c r="I3">
-        <v>0.8733159122702197</v>
+        <v>0.01168865099424763</v>
       </c>
       <c r="J3">
-        <v>0.8733159122702197</v>
+        <v>0.01168865099424763</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>27.6094577896734</v>
+        <v>0.243558</v>
       </c>
       <c r="N3">
-        <v>27.6094577896734</v>
+        <v>0.730674</v>
       </c>
       <c r="O3">
-        <v>0.3966237755916457</v>
+        <v>0.00340431900872394</v>
       </c>
       <c r="P3">
-        <v>0.3966237755916457</v>
+        <v>0.00340431900872394</v>
       </c>
       <c r="Q3">
-        <v>502.8640271499594</v>
+        <v>0.06155035404000001</v>
       </c>
       <c r="R3">
-        <v>502.8640271499594</v>
+        <v>0.55395318636</v>
       </c>
       <c r="S3">
-        <v>0.346377854408877</v>
+        <v>3.979189676605717E-05</v>
       </c>
       <c r="T3">
-        <v>0.346377854408877</v>
+        <v>3.979189676605718E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,185 +649,185 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>18.2134698544512</v>
+        <v>0.2527133333333333</v>
       </c>
       <c r="H4">
-        <v>18.2134698544512</v>
+        <v>0.75814</v>
       </c>
       <c r="I4">
-        <v>0.8733159122702197</v>
+        <v>0.01168865099424763</v>
       </c>
       <c r="J4">
-        <v>0.8733159122702197</v>
+        <v>0.01168865099424763</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>38.0680024619363</v>
+        <v>28.762212</v>
       </c>
       <c r="N4">
-        <v>38.0680024619363</v>
+        <v>86.286636</v>
       </c>
       <c r="O4">
-        <v>0.5468660406410628</v>
+        <v>0.4020222905613768</v>
       </c>
       <c r="P4">
-        <v>0.5468660406410628</v>
+        <v>0.4020222905613768</v>
       </c>
       <c r="Q4">
-        <v>693.350415259651</v>
+        <v>7.268594468560001</v>
       </c>
       <c r="R4">
-        <v>693.350415259651</v>
+        <v>65.41735021704001</v>
       </c>
       <c r="S4">
-        <v>0.4775868151720528</v>
+        <v>0.004699098246279945</v>
       </c>
       <c r="T4">
-        <v>0.4775868151720528</v>
+        <v>0.004699098246279945</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>2.64206432115377</v>
+        <v>0.2527133333333333</v>
       </c>
       <c r="H5">
-        <v>2.64206432115377</v>
+        <v>0.75814</v>
       </c>
       <c r="I5">
-        <v>0.1266840877297802</v>
+        <v>0.01168865099424763</v>
       </c>
       <c r="J5">
-        <v>0.1266840877297802</v>
+        <v>0.01168865099424763</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.9337418214083</v>
+        <v>38.34748099999999</v>
       </c>
       <c r="N5">
-        <v>3.9337418214083</v>
+        <v>115.042443</v>
       </c>
       <c r="O5">
-        <v>0.05651018376729135</v>
+        <v>0.5359998788994002</v>
       </c>
       <c r="P5">
-        <v>0.05651018376729135</v>
+        <v>0.5359998788994002</v>
       </c>
       <c r="Q5">
-        <v>10.39319891497331</v>
+        <v>9.690919748446666</v>
       </c>
       <c r="R5">
-        <v>10.39319891497331</v>
+        <v>87.21827773602</v>
       </c>
       <c r="S5">
-        <v>0.00715894107800154</v>
+        <v>0.00626511551741408</v>
       </c>
       <c r="T5">
-        <v>0.00715894107800154</v>
+        <v>0.00626511551741408</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
         <v>22</v>
       </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>25</v>
-      </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>2.64206432115377</v>
+        <v>0.2527133333333333</v>
       </c>
       <c r="H6">
-        <v>2.64206432115377</v>
+        <v>0.75814</v>
       </c>
       <c r="I6">
-        <v>0.1266840877297802</v>
+        <v>0.01168865099424763</v>
       </c>
       <c r="J6">
-        <v>0.1266840877297802</v>
+        <v>0.01168865099424763</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>27.6094577896734</v>
+        <v>0.09228666666666667</v>
       </c>
       <c r="N6">
-        <v>27.6094577896734</v>
+        <v>0.27686</v>
       </c>
       <c r="O6">
-        <v>0.3966237755916457</v>
+        <v>0.0012899319816434</v>
       </c>
       <c r="P6">
-        <v>0.3966237755916457</v>
+        <v>0.0012899319816434</v>
       </c>
       <c r="Q6">
-        <v>72.94596335249712</v>
+        <v>0.02332207115555556</v>
       </c>
       <c r="R6">
-        <v>72.94596335249712</v>
+        <v>0.2098986404</v>
       </c>
       <c r="S6">
-        <v>0.05024592118276872</v>
+        <v>1.507756473974794E-05</v>
       </c>
       <c r="T6">
-        <v>0.05024592118276872</v>
+        <v>1.507756473974794E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,619 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>18.279338</v>
+      </c>
+      <c r="H7">
+        <v>54.838014</v>
+      </c>
+      <c r="I7">
+        <v>0.8454670731839307</v>
+      </c>
+      <c r="J7">
+        <v>0.8454670731839307</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>4.098286333333333</v>
+      </c>
+      <c r="N7">
+        <v>12.294859</v>
+      </c>
+      <c r="O7">
+        <v>0.05728357954885573</v>
+      </c>
+      <c r="P7">
+        <v>0.05728357954885573</v>
+      </c>
+      <c r="Q7">
+        <v>74.91396110778066</v>
+      </c>
+      <c r="R7">
+        <v>674.225649970026</v>
+      </c>
+      <c r="S7">
+        <v>0.04843138034266992</v>
+      </c>
+      <c r="T7">
+        <v>0.04843138034266992</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>18.279338</v>
+      </c>
+      <c r="H8">
+        <v>54.838014</v>
+      </c>
+      <c r="I8">
+        <v>0.8454670731839307</v>
+      </c>
+      <c r="J8">
+        <v>0.8454670731839307</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M8">
+        <v>0.243558</v>
+      </c>
+      <c r="N8">
+        <v>0.730674</v>
+      </c>
+      <c r="O8">
+        <v>0.00340431900872394</v>
+      </c>
+      <c r="P8">
+        <v>0.00340431900872394</v>
+      </c>
+      <c r="Q8">
+        <v>4.452079004604</v>
+      </c>
+      <c r="R8">
+        <v>40.068711041436</v>
+      </c>
+      <c r="S8">
+        <v>0.002878239628490249</v>
+      </c>
+      <c r="T8">
+        <v>0.00287823962849025</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>18.279338</v>
+      </c>
+      <c r="H9">
+        <v>54.838014</v>
+      </c>
+      <c r="I9">
+        <v>0.8454670731839307</v>
+      </c>
+      <c r="J9">
+        <v>0.8454670731839307</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>28.762212</v>
+      </c>
+      <c r="N9">
+        <v>86.286636</v>
+      </c>
+      <c r="O9">
+        <v>0.4020222905613768</v>
+      </c>
+      <c r="P9">
+        <v>0.4020222905613768</v>
+      </c>
+      <c r="Q9">
+        <v>525.7541947756561</v>
+      </c>
+      <c r="R9">
+        <v>4731.787752980904</v>
+      </c>
+      <c r="S9">
+        <v>0.339896609355627</v>
+      </c>
+      <c r="T9">
+        <v>0.339896609355627</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>18.279338</v>
+      </c>
+      <c r="H10">
+        <v>54.838014</v>
+      </c>
+      <c r="I10">
+        <v>0.8454670731839307</v>
+      </c>
+      <c r="J10">
+        <v>0.8454670731839307</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>38.34748099999999</v>
+      </c>
+      <c r="N10">
+        <v>115.042443</v>
+      </c>
+      <c r="O10">
+        <v>0.5359998788994002</v>
+      </c>
+      <c r="P10">
+        <v>0.5359998788994002</v>
+      </c>
+      <c r="Q10">
+        <v>700.9665666475779</v>
+      </c>
+      <c r="R10">
+        <v>6308.699099828202</v>
+      </c>
+      <c r="S10">
+        <v>0.4531702488400171</v>
+      </c>
+      <c r="T10">
+        <v>0.4531702488400171</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>18.279338</v>
+      </c>
+      <c r="H11">
+        <v>54.838014</v>
+      </c>
+      <c r="I11">
+        <v>0.8454670731839307</v>
+      </c>
+      <c r="J11">
+        <v>0.8454670731839307</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M11">
+        <v>0.09228666666666667</v>
+      </c>
+      <c r="N11">
+        <v>0.27686</v>
+      </c>
+      <c r="O11">
+        <v>0.0012899319816434</v>
+      </c>
+      <c r="P11">
+        <v>0.0012899319816434</v>
+      </c>
+      <c r="Q11">
+        <v>1.686939172893333</v>
+      </c>
+      <c r="R11">
+        <v>15.18245255604</v>
+      </c>
+      <c r="S11">
+        <v>0.001090595017126394</v>
+      </c>
+      <c r="T11">
+        <v>0.001090595017126394</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
         <v>23</v>
       </c>
-      <c r="D7" t="s">
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>3.088350666666667</v>
+      </c>
+      <c r="H12">
+        <v>9.265052000000001</v>
+      </c>
+      <c r="I12">
+        <v>0.1428442758218218</v>
+      </c>
+      <c r="J12">
+        <v>0.1428442758218218</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>4.098286333333333</v>
+      </c>
+      <c r="N12">
+        <v>12.294859</v>
+      </c>
+      <c r="O12">
+        <v>0.05728357954885573</v>
+      </c>
+      <c r="P12">
+        <v>0.05728357954885573</v>
+      </c>
+      <c r="Q12">
+        <v>12.65694532974089</v>
+      </c>
+      <c r="R12">
+        <v>113.912507967668</v>
+      </c>
+      <c r="S12">
+        <v>0.008182631437138016</v>
+      </c>
+      <c r="T12">
+        <v>0.008182631437138016</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>3.088350666666667</v>
+      </c>
+      <c r="H13">
+        <v>9.265052000000001</v>
+      </c>
+      <c r="I13">
+        <v>0.1428442758218218</v>
+      </c>
+      <c r="J13">
+        <v>0.1428442758218218</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M13">
+        <v>0.243558</v>
+      </c>
+      <c r="N13">
+        <v>0.730674</v>
+      </c>
+      <c r="O13">
+        <v>0.00340431900872394</v>
+      </c>
+      <c r="P13">
+        <v>0.00340431900872394</v>
+      </c>
+      <c r="Q13">
+        <v>0.7521925116720002</v>
+      </c>
+      <c r="R13">
+        <v>6.769732605048001</v>
+      </c>
+      <c r="S13">
+        <v>0.0004862874834676333</v>
+      </c>
+      <c r="T13">
+        <v>0.0004862874834676334</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>3.088350666666667</v>
+      </c>
+      <c r="H14">
+        <v>9.265052000000001</v>
+      </c>
+      <c r="I14">
+        <v>0.1428442758218218</v>
+      </c>
+      <c r="J14">
+        <v>0.1428442758218218</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>28.762212</v>
+      </c>
+      <c r="N14">
+        <v>86.286636</v>
+      </c>
+      <c r="O14">
+        <v>0.4020222905613768</v>
+      </c>
+      <c r="P14">
+        <v>0.4020222905613768</v>
+      </c>
+      <c r="Q14">
+        <v>88.82779660500802</v>
+      </c>
+      <c r="R14">
+        <v>799.4501694450721</v>
+      </c>
+      <c r="S14">
+        <v>0.05742658295946988</v>
+      </c>
+      <c r="T14">
+        <v>0.05742658295946989</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
         <v>26</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>2.64206432115377</v>
-      </c>
-      <c r="H7">
-        <v>2.64206432115377</v>
-      </c>
-      <c r="I7">
-        <v>0.1266840877297802</v>
-      </c>
-      <c r="J7">
-        <v>0.1266840877297802</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>38.0680024619363</v>
-      </c>
-      <c r="N7">
-        <v>38.0680024619363</v>
-      </c>
-      <c r="O7">
-        <v>0.5468660406410628</v>
-      </c>
-      <c r="P7">
-        <v>0.5468660406410628</v>
-      </c>
-      <c r="Q7">
-        <v>100.5781110822758</v>
-      </c>
-      <c r="R7">
-        <v>100.5781110822758</v>
-      </c>
-      <c r="S7">
-        <v>0.06927922546900997</v>
-      </c>
-      <c r="T7">
-        <v>0.06927922546900997</v>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>3.088350666666667</v>
+      </c>
+      <c r="H15">
+        <v>9.265052000000001</v>
+      </c>
+      <c r="I15">
+        <v>0.1428442758218218</v>
+      </c>
+      <c r="J15">
+        <v>0.1428442758218218</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>38.34748099999999</v>
+      </c>
+      <c r="N15">
+        <v>115.042443</v>
+      </c>
+      <c r="O15">
+        <v>0.5359998788994002</v>
+      </c>
+      <c r="P15">
+        <v>0.5359998788994002</v>
+      </c>
+      <c r="Q15">
+        <v>118.4304685113373</v>
+      </c>
+      <c r="R15">
+        <v>1065.874216602036</v>
+      </c>
+      <c r="S15">
+        <v>0.07656451454196898</v>
+      </c>
+      <c r="T15">
+        <v>0.07656451454196898</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>3.088350666666667</v>
+      </c>
+      <c r="H16">
+        <v>9.265052000000001</v>
+      </c>
+      <c r="I16">
+        <v>0.1428442758218218</v>
+      </c>
+      <c r="J16">
+        <v>0.1428442758218218</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>0.09228666666666667</v>
+      </c>
+      <c r="N16">
+        <v>0.27686</v>
+      </c>
+      <c r="O16">
+        <v>0.0012899319816434</v>
+      </c>
+      <c r="P16">
+        <v>0.0012899319816434</v>
+      </c>
+      <c r="Q16">
+        <v>0.2850135885244445</v>
+      </c>
+      <c r="R16">
+        <v>2.56512229672</v>
+      </c>
+      <c r="S16">
+        <v>0.000184259399777259</v>
+      </c>
+      <c r="T16">
+        <v>0.000184259399777259</v>
       </c>
     </row>
   </sheetData>
